--- a/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3511"/>
+  <dimension ref="A1:B3512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42565,6 +42565,18 @@
         </is>
       </c>
     </row>
+    <row r="3512">
+      <c r="A3512" t="inlineStr">
+        <is>
+          <t>10/30/2023</t>
+        </is>
+      </c>
+      <c r="B3512" t="inlineStr">
+        <is>
+          <t>$57.62</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3512"/>
+  <dimension ref="A1:B3516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42577,6 +42577,54 @@
         </is>
       </c>
     </row>
+    <row r="3513">
+      <c r="A3513" t="inlineStr">
+        <is>
+          <t>10/31/2023</t>
+        </is>
+      </c>
+      <c r="B3513" t="inlineStr">
+        <is>
+          <t>$57.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" t="inlineStr">
+        <is>
+          <t>11/01/2023</t>
+        </is>
+      </c>
+      <c r="B3514" t="inlineStr">
+        <is>
+          <t>$57.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" t="inlineStr">
+        <is>
+          <t>11/02/2023</t>
+        </is>
+      </c>
+      <c r="B3515" t="inlineStr">
+        <is>
+          <t>$57.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" t="inlineStr">
+        <is>
+          <t>11/03/2023</t>
+        </is>
+      </c>
+      <c r="B3516" t="inlineStr">
+        <is>
+          <t>$57.69</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3516"/>
+  <dimension ref="A1:B3519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42625,6 +42625,42 @@
         </is>
       </c>
     </row>
+    <row r="3517">
+      <c r="A3517" t="inlineStr">
+        <is>
+          <t>11/06/2023</t>
+        </is>
+      </c>
+      <c r="B3517" t="inlineStr">
+        <is>
+          <t>$57.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" t="inlineStr">
+        <is>
+          <t>11/07/2023</t>
+        </is>
+      </c>
+      <c r="B3518" t="inlineStr">
+        <is>
+          <t>$57.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" t="inlineStr">
+        <is>
+          <t>11/08/2023</t>
+        </is>
+      </c>
+      <c r="B3519" t="inlineStr">
+        <is>
+          <t>$57.63</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3519"/>
+  <dimension ref="A1:B3520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42661,6 +42661,18 @@
         </is>
       </c>
     </row>
+    <row r="3520">
+      <c r="A3520" t="inlineStr">
+        <is>
+          <t>11/09/2023</t>
+        </is>
+      </c>
+      <c r="B3520" t="inlineStr">
+        <is>
+          <t>$57.53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3520"/>
+  <dimension ref="A1:B3521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42673,6 +42673,18 @@
         </is>
       </c>
     </row>
+    <row r="3521">
+      <c r="A3521" t="inlineStr">
+        <is>
+          <t>11/10/2023</t>
+        </is>
+      </c>
+      <c r="B3521" t="inlineStr">
+        <is>
+          <t>$57.53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
+++ b/vanguard/vg_nav_data/VGSH_nav_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3521"/>
+  <dimension ref="A1:B3531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42685,6 +42685,126 @@
         </is>
       </c>
     </row>
+    <row r="3522">
+      <c r="A3522" t="inlineStr">
+        <is>
+          <t>11/13/2023</t>
+        </is>
+      </c>
+      <c r="B3522" t="inlineStr">
+        <is>
+          <t>$57.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" t="inlineStr">
+        <is>
+          <t>11/14/2023</t>
+        </is>
+      </c>
+      <c r="B3523" t="inlineStr">
+        <is>
+          <t>$57.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" t="inlineStr">
+        <is>
+          <t>11/15/2023</t>
+        </is>
+      </c>
+      <c r="B3524" t="inlineStr">
+        <is>
+          <t>$57.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="3525">
+      <c r="A3525" t="inlineStr">
+        <is>
+          <t>11/16/2023</t>
+        </is>
+      </c>
+      <c r="B3525" t="inlineStr">
+        <is>
+          <t>$57.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" t="inlineStr">
+        <is>
+          <t>11/17/2023</t>
+        </is>
+      </c>
+      <c r="B3526" t="inlineStr">
+        <is>
+          <t>$57.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" t="inlineStr">
+        <is>
+          <t>11/20/2023</t>
+        </is>
+      </c>
+      <c r="B3527" t="inlineStr">
+        <is>
+          <t>$57.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" t="inlineStr">
+        <is>
+          <t>11/21/2023</t>
+        </is>
+      </c>
+      <c r="B3528" t="inlineStr">
+        <is>
+          <t>$57.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" t="inlineStr">
+        <is>
+          <t>11/22/2023</t>
+        </is>
+      </c>
+      <c r="B3529" t="inlineStr">
+        <is>
+          <t>$57.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" t="inlineStr">
+        <is>
+          <t>11/24/2023</t>
+        </is>
+      </c>
+      <c r="B3530" t="inlineStr">
+        <is>
+          <t>$57.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" t="inlineStr">
+        <is>
+          <t>11/27/2023</t>
+        </is>
+      </c>
+      <c r="B3531" t="inlineStr">
+        <is>
+          <t>$57.84</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
